--- a/需求变更/5.xlsx
+++ b/需求变更/5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TabooZ\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TabooZ\Desktop\需求分析\需求变更\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F9C5001-8B7C-45E3-9B28-B00B7EE31488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2E216B-8110-4BED-9E9B-50F8CADA4DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{56997131-FC26-4627-BE18-260ED6DDC42B}"/>
   </bookViews>
@@ -497,7 +497,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -664,6 +664,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -793,14 +817,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -818,17 +842,20 @@
     <xf numFmtId="10" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1187,7 +1214,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8201CC1B-D68F-48C2-8306-99B905BEE1F2}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
@@ -1352,36 +1381,36 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1478,6 +1507,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A12:G12"/>
+  </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
